--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H2">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J2">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>1459.402139236853</v>
+        <v>1697.054412606323</v>
       </c>
       <c r="R2">
-        <v>1459.402139236853</v>
+        <v>15273.4897134569</v>
       </c>
       <c r="S2">
-        <v>0.3053249234326051</v>
+        <v>0.3129780133041193</v>
       </c>
       <c r="T2">
-        <v>0.3053249234326051</v>
+        <v>0.3129780133041192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H3">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J3">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>568.0752709281759</v>
+        <v>608.1817310609013</v>
       </c>
       <c r="R3">
-        <v>568.0752709281759</v>
+        <v>5473.635579548112</v>
       </c>
       <c r="S3">
-        <v>0.1188483516207537</v>
+        <v>0.1121634689502777</v>
       </c>
       <c r="T3">
-        <v>0.1188483516207537</v>
+        <v>0.1121634689502777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H4">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J4">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>777.6998743180691</v>
+        <v>878.4418365325145</v>
       </c>
       <c r="R4">
-        <v>777.6998743180691</v>
+        <v>7905.976528792631</v>
       </c>
       <c r="S4">
-        <v>0.1627044035332703</v>
+        <v>0.1620059903553289</v>
       </c>
       <c r="T4">
-        <v>0.1627044035332703</v>
+        <v>0.1620059903553289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H5">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J5">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>1043.038239874842</v>
+        <v>1112.859676817368</v>
       </c>
       <c r="R5">
-        <v>1043.038239874842</v>
+        <v>10015.73709135631</v>
       </c>
       <c r="S5">
-        <v>0.2182164614981285</v>
+        <v>0.2052383283348274</v>
       </c>
       <c r="T5">
-        <v>0.2182164614981285</v>
+        <v>0.2052383283348274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H6">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J6">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>306.374395716126</v>
+        <v>341.5947899315786</v>
       </c>
       <c r="R6">
-        <v>306.374395716126</v>
+        <v>3074.353109384208</v>
       </c>
       <c r="S6">
-        <v>0.06409730148994605</v>
+        <v>0.06299836818056377</v>
       </c>
       <c r="T6">
-        <v>0.06409730148994605</v>
+        <v>0.06299836818056374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3744308199845</v>
+        <v>17.42000266666667</v>
       </c>
       <c r="H7">
-        <v>16.3744308199845</v>
+        <v>52.260008</v>
       </c>
       <c r="I7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692464</v>
       </c>
       <c r="J7">
-        <v>0.9230434905555407</v>
+        <v>0.9068449954692462</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>257.4037998646028</v>
+        <v>279.0350079282151</v>
       </c>
       <c r="R7">
-        <v>257.4037998646028</v>
+        <v>2511.315071353936</v>
       </c>
       <c r="S7">
-        <v>0.05385204898083707</v>
+        <v>0.05146082634412908</v>
       </c>
       <c r="T7">
-        <v>0.05385204898083707</v>
+        <v>0.05146082634412907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H8">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J8">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>121.6741092490129</v>
+        <v>1.433273615442333</v>
       </c>
       <c r="R8">
-        <v>121.6741092490129</v>
+        <v>12.899462538981</v>
       </c>
       <c r="S8">
-        <v>0.02545572401970832</v>
+        <v>0.0002643304335736787</v>
       </c>
       <c r="T8">
-        <v>0.02545572401970832</v>
+        <v>0.0002643304335736786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H9">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J9">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>47.36189616161693</v>
+        <v>0.5136493102686667</v>
       </c>
       <c r="R9">
-        <v>47.36189616161693</v>
+        <v>4.622843792418001</v>
       </c>
       <c r="S9">
-        <v>0.009908692697086538</v>
+        <v>9.472939669390042E-05</v>
       </c>
       <c r="T9">
-        <v>0.009908692697086538</v>
+        <v>9.472939669390038E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H10">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J10">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>64.83883840282833</v>
+        <v>0.7419016724803333</v>
       </c>
       <c r="R10">
-        <v>64.83883840282833</v>
+        <v>6.677115052323</v>
       </c>
       <c r="S10">
-        <v>0.01356508452232005</v>
+        <v>0.0001368246709092191</v>
       </c>
       <c r="T10">
-        <v>0.01356508452232005</v>
+        <v>0.000136824670909219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H11">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J11">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>86.96078026567332</v>
+        <v>0.9398828939270001</v>
       </c>
       <c r="R11">
-        <v>86.96078026567332</v>
+        <v>8.458946045343001</v>
       </c>
       <c r="S11">
-        <v>0.01819326754594209</v>
+        <v>0.0001733372122276422</v>
       </c>
       <c r="T11">
-        <v>0.01819326754594209</v>
+        <v>0.0001733372122276421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.36517840485216</v>
+        <v>0.01471233333333333</v>
       </c>
       <c r="H12">
-        <v>1.36517840485216</v>
+        <v>0.044137</v>
       </c>
       <c r="I12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253373</v>
       </c>
       <c r="J12">
-        <v>0.07695650944445932</v>
+        <v>0.0007658900007253371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>25.54322122273813</v>
+        <v>0.2884991759513334</v>
       </c>
       <c r="R12">
-        <v>25.54322122273813</v>
+        <v>2.596492583562001</v>
       </c>
       <c r="S12">
-        <v>0.005343956853546093</v>
+        <v>5.320624857894288E-05</v>
       </c>
       <c r="T12">
-        <v>0.005343956853546093</v>
+        <v>5.320624857894285E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01471233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.044137</v>
+      </c>
+      <c r="I13">
+        <v>0.0007658900007253373</v>
+      </c>
+      <c r="J13">
+        <v>0.0007658900007253371</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N13">
+        <v>48.054242</v>
+      </c>
+      <c r="O13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q13">
+        <v>0.2356633421282222</v>
+      </c>
+      <c r="R13">
+        <v>2.120970079154</v>
+      </c>
+      <c r="S13">
+        <v>4.346203874195399E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.346203874195398E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.774745</v>
+      </c>
+      <c r="H14">
+        <v>5.324235</v>
+      </c>
+      <c r="I14">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J14">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>97.419871</v>
+      </c>
+      <c r="N14">
+        <v>292.259613</v>
+      </c>
+      <c r="O14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q14">
+        <v>172.895428957895</v>
+      </c>
+      <c r="R14">
+        <v>1556.058860621055</v>
+      </c>
+      <c r="S14">
+        <v>0.03188611246795557</v>
+      </c>
+      <c r="T14">
+        <v>0.03188611246795556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.774745</v>
+      </c>
+      <c r="H15">
+        <v>5.324235</v>
+      </c>
+      <c r="I15">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J15">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.912838</v>
+      </c>
+      <c r="N15">
+        <v>104.738514</v>
+      </c>
+      <c r="O15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q15">
+        <v>61.96138467631</v>
+      </c>
+      <c r="R15">
+        <v>557.65246208679</v>
+      </c>
+      <c r="S15">
+        <v>0.01142718284900534</v>
+      </c>
+      <c r="T15">
+        <v>0.01142718284900534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="H13">
-        <v>1.36517840485216</v>
-      </c>
-      <c r="I13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="J13">
-        <v>0.07695650944445932</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q13">
-        <v>21.46041671709085</v>
-      </c>
-      <c r="R13">
-        <v>21.46041671709085</v>
-      </c>
-      <c r="S13">
-        <v>0.00448978380585623</v>
-      </c>
-      <c r="T13">
-        <v>0.00448978380585623</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.774745</v>
+      </c>
+      <c r="H16">
+        <v>5.324235</v>
+      </c>
+      <c r="I16">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J16">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>50.427193</v>
+      </c>
+      <c r="N16">
+        <v>151.281579</v>
+      </c>
+      <c r="O16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q16">
+        <v>89.49540864078499</v>
+      </c>
+      <c r="R16">
+        <v>805.458677767065</v>
+      </c>
+      <c r="S16">
+        <v>0.01650512499078655</v>
+      </c>
+      <c r="T16">
+        <v>0.01650512499078654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.774745</v>
+      </c>
+      <c r="H17">
+        <v>5.324235</v>
+      </c>
+      <c r="I17">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J17">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.884013</v>
+      </c>
+      <c r="N17">
+        <v>191.652039</v>
+      </c>
+      <c r="O17">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P17">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q17">
+        <v>113.377832651685</v>
+      </c>
+      <c r="R17">
+        <v>1020.400493865165</v>
+      </c>
+      <c r="S17">
+        <v>0.02090962349377712</v>
+      </c>
+      <c r="T17">
+        <v>0.02090962349377711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.774745</v>
+      </c>
+      <c r="H18">
+        <v>5.324235</v>
+      </c>
+      <c r="I18">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J18">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.609342</v>
+      </c>
+      <c r="N18">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P18">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q18">
+        <v>34.80158166779</v>
+      </c>
+      <c r="R18">
+        <v>313.21423501011</v>
+      </c>
+      <c r="S18">
+        <v>0.006418256132104762</v>
+      </c>
+      <c r="T18">
+        <v>0.00641825613210476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.774745</v>
+      </c>
+      <c r="H19">
+        <v>5.324235</v>
+      </c>
+      <c r="I19">
+        <v>0.09238911453002845</v>
+      </c>
+      <c r="J19">
+        <v>0.09238911453002843</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N19">
+        <v>48.054242</v>
+      </c>
+      <c r="O19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q19">
+        <v>28.42800857276333</v>
+      </c>
+      <c r="R19">
+        <v>255.85207715487</v>
+      </c>
+      <c r="S19">
+        <v>0.005242814596399106</v>
+      </c>
+      <c r="T19">
+        <v>0.005242814596399106</v>
       </c>
     </row>
   </sheetData>
